--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D042 Terra Firma/Terra Firma Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D042 Terra Firma/Terra Firma Progress Assessment - March 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himal\OneDrive\Documents\Work\ECON\Omniyat\Payments\Contractor Payment Cerfificates\KCE\Sub Contractor Payment\D042 Terra Firma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tharaka\F015 - Plot 18\Main Scope\Payments\Mar 2023\Omniyat Concept Investments LLC-Plot 18-2023-04-07-12-08-20-987\06b. Subcontractor Cost &amp; Backup\2. Domestic SC's\D42. Terra Firma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA343773-0405-487E-A570-128E38712BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9FA23-AE58-4B96-9F18-69BB6F6A2688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Advance Payment Recovery (20%)</t>
+  </si>
+  <si>
+    <t>Send us the AP bond copy</t>
   </si>
 </sst>
 </file>
@@ -70,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +96,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +142,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -410,17 +427,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="5" width="12.90625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="5" width="12.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,10 +454,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -452,13 +469,13 @@
         <v>51170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G4" s="5">
         <f>G3*20%</f>
         <v>10234</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -469,8 +486,11 @@
       <c r="E5" s="3">
         <v>10234</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <f>SUM(C3:C6)</f>
         <v>0</v>
@@ -495,6 +515,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>